--- a/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D0E99C-B7EB-486D-BFDE-CC106980C895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6779E4B-A190-4B4B-8246-194E40ABA4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8946FA37-A8E6-4A2D-BF31-11C23853FFBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>UC - Each Region/Period</t>
   </si>
@@ -620,12 +620,13 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
@@ -769,6 +770,9 @@
       <c r="N7">
         <v>15</v>
       </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6779E4B-A190-4B4B-8246-194E40ABA4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76ECD51-F0AF-4105-91C1-0197C3C4D293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8946FA37-A8E6-4A2D-BF31-11C23853FFBA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8946FA37-A8E6-4A2D-BF31-11C23853FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="MANHEAT_UP" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76ECD51-F0AF-4105-91C1-0197C3C4D293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B849B5-BC46-4DF4-92D0-5934E24DFCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8946FA37-A8E6-4A2D-BF31-11C23853FFBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8946FA37-A8E6-4A2D-BF31-11C23853FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="MANHEAT_UP" sheetId="1" r:id="rId1"/>
@@ -620,12 +620,13 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>

--- a/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B849B5-BC46-4DF4-92D0-5934E24DFCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71B9217-AB03-426F-BC51-8EBC9CA2125D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8946FA37-A8E6-4A2D-BF31-11C23853FFBA}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +709,7 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -747,7 +747,7 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="M7">
         <v>0</v>

--- a/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71B9217-AB03-426F-BC51-8EBC9CA2125D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0983E59-626B-4E48-801E-DD072A62240C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8946FA37-A8E6-4A2D-BF31-11C23853FFBA}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
         <v>0</v>

--- a/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MaxProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0983E59-626B-4E48-801E-DD072A62240C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3763B9-F965-4420-9E06-CD89784AF850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8946FA37-A8E6-4A2D-BF31-11C23853FFBA}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +709,7 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
@@ -747,7 +747,7 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
